--- a/docss/trend/spain/E_fibrosis.xlsx
+++ b/docss/trend/spain/E_fibrosis.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ej5_Fibrosis_Comarcas" sheetId="1" r:id="rId1"/>
     <sheet name="Tasa_anual_Ej5_Fibrosis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12809,7 +12809,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12833,13 +12833,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>5.8190779765490377E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C2">
-        <v>5.1684340731633908E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D2">
-        <v>6.4438315394493587E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12847,13 +12847,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>4.1798664581687558E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C3">
-        <v>4.4990776512390904E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D3">
-        <v>4.0154917225278051E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12861,13 +12861,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>5.0280917814108698E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C4">
-        <v>4.939346819063483E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D4">
-        <v>5.3123278720137827E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12875,13 +12875,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>3.7884584581763886E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="C5">
-        <v>3.3015674350848206E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D5">
-        <v>4.1061412799558994E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12889,13 +12889,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>6.8300178555204261E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="C6">
-        <v>7.8994415463226331E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D6">
-        <v>5.8028469541738813E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12903,13 +12903,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>8.9907140202317035E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C7">
-        <v>7.7150604217190416E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D7">
-        <v>0.10375178009710739</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12917,13 +12917,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>5.2570804947649687E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C8">
-        <v>5.3689393250368082E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D8">
-        <v>5.1603662918314641E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12931,13 +12931,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>2.4838855698262226E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C9">
-        <v>2.9200124955787859E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D9">
-        <v>1.9639233220936005E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12945,13 +12945,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>6.4075017227357423E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C10">
-        <v>4.6847462093819424E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D10">
-        <v>8.7301200228129941E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12959,13 +12959,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>6.5060023898686439E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C11">
-        <v>7.430238973188176E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D11">
-        <v>5.8240361962091369E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12973,13 +12973,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>7.0950511414741624E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C12">
-        <v>6.8299343802224785E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D12">
-        <v>7.4390689313737463E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12987,13 +12987,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>7.1711197061742907E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="C13">
-        <v>8.8180009353195532E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D13">
-        <v>5.3207272702785809E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13001,13 +13001,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>5.231959131050342E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C14">
-        <v>4.3543032608386253E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D14">
-        <v>6.2709884217744941E-2</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13015,13 +13015,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>6.1282062702153632E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="C15">
-        <v>5.5946920717722746E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D15">
-        <v>6.6324077544090629E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13029,13 +13029,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>7.583163317727154E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="C16">
-        <v>5.7212864200140517E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D16">
-        <v>9.937038394763234E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
   </sheetData>
